--- a/report.xlsx
+++ b/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -37,7 +37,16 @@
     <t>sap</t>
   </si>
   <si>
-    <t>140000062039-0</t>
+    <t>sppElement</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>140000099484-0</t>
   </si>
   <si>
     <t>demontage</t>
@@ -46,25 +55,31 @@
     <t>TDR1</t>
   </si>
   <si>
-    <t>Приемопередающий модуль FXED 6TX 1800</t>
-  </si>
-  <si>
-    <t>NS001120</t>
-  </si>
-  <si>
-    <t>140000062039</t>
-  </si>
-  <si>
-    <t>140000031708-1</t>
-  </si>
-  <si>
-    <t>T001</t>
-  </si>
-  <si>
-    <t>Батарея Narada 6-GFM-100F аккумуляторная</t>
-  </si>
-  <si>
-    <t>140000031708</t>
+    <t>Приемопередающий модуль FRGU 6TX 2100</t>
+  </si>
+  <si>
+    <t>NS001588</t>
+  </si>
+  <si>
+    <t>140000099484</t>
+  </si>
+  <si>
+    <t>P-T223046.54.9996-563</t>
+  </si>
+  <si>
+    <t>montage</t>
+  </si>
+  <si>
+    <t>KZ01</t>
+  </si>
+  <si>
+    <t>ТМЦ</t>
+  </si>
+  <si>
+    <t>P-T223046.54.9996</t>
+  </si>
+  <si>
+    <t>0001902481</t>
   </si>
 </sst>
 </file>
@@ -126,9 +141,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:G3" totalsRowShown="0">
-  <autoFilter ref="A1:G3"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:J3" totalsRowShown="0">
+  <autoFilter ref="A1:J3"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="id" dataDxfId="0"/>
     <tableColumn id="2" name="type" dataDxfId="0"/>
     <tableColumn id="3" name="destination" dataDxfId="0"/>
@@ -136,6 +151,9 @@
     <tableColumn id="5" name="count" dataDxfId="1"/>
     <tableColumn id="6" name="baseStation" dataDxfId="0"/>
     <tableColumn id="7" name="sap" dataDxfId="0"/>
+    <tableColumn id="8" name="sppElement" dataDxfId="0"/>
+    <tableColumn id="9" name="warehouse" dataDxfId="0"/>
+    <tableColumn id="10" name="party" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -426,22 +444,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,51 +484,70 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
